--- a/Program/Other/LM087_底稿_8-1 放款內部控制月報表.xlsx
+++ b/Program/Other/LM087_底稿_8-1 放款內部控制月報表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v06v2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87319D38-DA44-4A6D-965A-0F04A32FE8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDAD4D8-D37B-451C-A85D-44D404E71855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>機密等級：機密
 單位：百萬元</t>
@@ -343,11 +343,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>同一關係人：鄭秀慧、興富發建設、齊裕營造、潤隆建設、
-            興益發建設。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>對同一關係人擔保放款，其中對</t>
     </r>
@@ -373,10 +368,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>同一關係人：陳冠翰、陳冠舟。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>對同一</t>
     </r>
@@ -399,11 +390,6 @@
       </rPr>
       <t>擔保放款總額</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一關係企業：興富發建設、齊裕營造、潤隆建設 、
-              興益發建設。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -518,10 +504,6 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>為企金放款產業Ｂ級評等，單一授信對象控管標準為：放款額度不逾淨值15%（核貸總額不得逾40億元）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2464,7 +2446,7 @@
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2657,480 +2639,477 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="28" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="49" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="55" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="55" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="69" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="69" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="69" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="69" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="86" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="82" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="86" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="82" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="86" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="82" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="86" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="82" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="69" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="69" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="69" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="69" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="49" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="55" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="55" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3643,8 +3622,8 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="15.5"/>
@@ -3669,633 +3648,621 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A1" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110" t="s">
+      <c r="A1" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="111"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115" t="s">
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="115" t="s">
+      <c r="F2" s="215"/>
+      <c r="G2" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="118" t="s">
+      <c r="H2" s="216"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="119" t="s">
+      <c r="K2" s="219" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="120"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="111"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="221"/>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1">
-      <c r="A3" s="122"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="125" t="s">
+      <c r="A3" s="211"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="126" t="s">
+      <c r="G3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="126" t="s">
+      <c r="H3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="127" t="s">
+      <c r="I3" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="128"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="111"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="224"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="111"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="207"/>
     </row>
     <row r="5" spans="1:14" s="65" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="139">
+      <c r="A5" s="73">
         <v>1</v>
       </c>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="143">
+      <c r="C5" s="191"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="74">
         <f>$D$23*F5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="144">
+      <c r="F5" s="75">
         <v>0.02</v>
       </c>
-      <c r="G5" s="145"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="147" t="e">
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="78" t="e">
         <f>H5/$D$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="148" t="s">
+      <c r="J5" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="149"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="151"/>
-      <c r="N5" s="152" t="e">
+      <c r="K5" s="196"/>
+      <c r="L5" s="197"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="80" t="e">
         <f>I5-F5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A6" s="139">
+      <c r="A6" s="73">
         <v>2</v>
       </c>
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="154"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="143">
+      <c r="C6" s="156"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="74">
         <f>$D$23*F6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="144">
+      <c r="F6" s="75">
         <v>0.1</v>
       </c>
-      <c r="G6" s="156"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="147" t="e">
+      <c r="G6" s="81"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78" t="e">
         <f>H6/$D$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="148" t="s">
+      <c r="J6" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="157"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="152" t="e">
+      <c r="K6" s="199"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="80" t="e">
         <f>I6-F6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18">
-      <c r="A7" s="139">
+      <c r="A7" s="73">
         <v>3</v>
       </c>
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="143">
+      <c r="C7" s="156"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="74">
         <f>$D$23*F7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="160">
+      <c r="F7" s="83">
         <v>0.3</v>
       </c>
-      <c r="G7" s="156"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="147" t="e">
+      <c r="G7" s="81"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="78" t="e">
         <f>H7/$D$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="148" t="s">
+      <c r="J7" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="161" t="s">
+      <c r="K7" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="162"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="152" t="e">
+      <c r="L7" s="202"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="80" t="e">
         <f>I7-F7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A8" s="139">
+      <c r="A8" s="73">
         <v>4</v>
       </c>
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="165"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="167">
+      <c r="C8" s="186"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="85">
         <f>$D$23*F8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="168">
+      <c r="F8" s="86">
         <v>1.5</v>
       </c>
-      <c r="G8" s="169"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="147" t="e">
+      <c r="G8" s="87"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78" t="e">
         <f>H8/$D$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="148" t="s">
+      <c r="J8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="170"/>
-      <c r="L8" s="171"/>
-      <c r="M8" s="172"/>
-      <c r="N8" s="152" t="e">
+      <c r="K8" s="164"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="80" t="e">
         <f>I8-F8</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="173"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="176"/>
-      <c r="L9" s="176"/>
-      <c r="M9" s="177"/>
-      <c r="N9" s="152"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="173"/>
+      <c r="L9" s="173"/>
+      <c r="M9" s="174"/>
+      <c r="N9" s="80"/>
     </row>
     <row r="10" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A10" s="139">
+      <c r="A10" s="73">
         <v>5</v>
       </c>
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="143">
+      <c r="C10" s="191"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="74">
         <f>$D$23*F10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="144">
+      <c r="F10" s="75">
         <v>0.02</v>
       </c>
-      <c r="G10" s="178"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147" t="e">
+      <c r="G10" s="89"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="78" t="e">
         <f>H10/$D$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="148" t="s">
+      <c r="J10" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="179"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="152" t="e">
+      <c r="K10" s="193"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="195"/>
+      <c r="N10" s="80" t="e">
         <f>I10-F10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A11" s="139">
+      <c r="A11" s="73">
         <v>6</v>
       </c>
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="154"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="143">
+      <c r="C11" s="156"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="74">
         <f>$D$23*F11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="144">
+      <c r="F11" s="75">
         <v>0.1</v>
       </c>
-      <c r="G11" s="156"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="147" t="e">
+      <c r="G11" s="81"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="78" t="e">
         <f>H11/$D$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="148" t="s">
+      <c r="J11" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="182"/>
-      <c r="L11" s="183"/>
-      <c r="M11" s="184"/>
-      <c r="N11" s="152" t="e">
+      <c r="K11" s="161"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="80" t="e">
         <f>I11-F11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A12" s="185">
+      <c r="A12" s="90">
         <v>7</v>
       </c>
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="143">
+      <c r="C12" s="156"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="74">
         <f>$D$23*F12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="168">
+      <c r="F12" s="86">
         <v>1.5</v>
       </c>
-      <c r="G12" s="156"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="186" t="e">
+      <c r="G12" s="81"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="91" t="e">
         <f>H12/$D$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="148" t="s">
+      <c r="J12" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="170"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="152" t="e">
+      <c r="K12" s="164"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="80" t="e">
         <f>I12-F12</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="188"/>
-      <c r="J13" s="189"/>
-      <c r="K13" s="176"/>
-      <c r="L13" s="176"/>
-      <c r="M13" s="177"/>
-      <c r="N13" s="152"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="174"/>
+      <c r="N13" s="80"/>
     </row>
     <row r="14" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A14" s="185">
+      <c r="A14" s="90">
         <v>8</v>
       </c>
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="191"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="167">
+      <c r="C14" s="93"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="85">
         <f>$D$23*F14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="144">
+      <c r="F14" s="75">
         <v>0.03</v>
       </c>
-      <c r="G14" s="156"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="147" t="e">
+      <c r="G14" s="81"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="78" t="e">
         <f>H14/$D$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="148" t="s">
+      <c r="J14" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="193"/>
-      <c r="L14" s="194"/>
-      <c r="M14" s="195"/>
-      <c r="N14" s="152" t="e">
+      <c r="K14" s="179"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="80" t="e">
         <f>I14-F14</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A15" s="196">
+      <c r="A15" s="95">
         <v>9</v>
       </c>
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="143">
+      <c r="C15" s="156"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="74">
         <f>$D$23*F15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="144">
+      <c r="F15" s="75">
         <v>0.2</v>
       </c>
-      <c r="G15" s="156"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="147" t="e">
+      <c r="G15" s="81"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="78" t="e">
         <f>H15/$D$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="148" t="s">
+      <c r="J15" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="193"/>
-      <c r="L15" s="194"/>
-      <c r="M15" s="195"/>
-      <c r="N15" s="152" t="e">
+      <c r="K15" s="179"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="80" t="e">
         <f>I15-F15</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="38.25" customHeight="1">
-      <c r="A16" s="196">
+      <c r="A16" s="95">
         <v>10</v>
       </c>
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="143">
+      <c r="C16" s="156"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="74">
         <f>$D$23*F16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="144">
+      <c r="F16" s="75">
         <v>0.4</v>
       </c>
-      <c r="G16" s="156"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="147" t="e">
+      <c r="G16" s="81"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="78" t="e">
         <f>H16/$D$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="148" t="s">
+      <c r="J16" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="161" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="197"/>
-      <c r="M16" s="198"/>
-      <c r="N16" s="152" t="e">
+      <c r="K16" s="182"/>
+      <c r="L16" s="183"/>
+      <c r="M16" s="184"/>
+      <c r="N16" s="80" t="e">
         <f>I16-F16</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A17" s="196">
+      <c r="A17" s="95">
         <v>11</v>
       </c>
-      <c r="B17" s="199" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="154"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="143">
+      <c r="B17" s="178" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="156"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="74">
         <f>$D$23*F17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="144">
+      <c r="F17" s="75">
         <v>0.06</v>
       </c>
-      <c r="G17" s="156"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="147" t="e">
+      <c r="G17" s="81"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78" t="e">
         <f>H17/$D$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="148" t="s">
+      <c r="J17" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="200" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="201"/>
-      <c r="M17" s="202"/>
-      <c r="N17" s="152" t="e">
+      <c r="K17" s="96"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="80" t="e">
         <f>I17-F17</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="38.25" customHeight="1">
-      <c r="A18" s="196">
+      <c r="A18" s="95">
         <v>12</v>
       </c>
-      <c r="B18" s="153" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="143">
+      <c r="B18" s="155" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="156"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="74">
         <f>$D$23*F18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="144">
+      <c r="F18" s="75">
         <v>0.4</v>
       </c>
-      <c r="G18" s="156"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="147" t="e">
+      <c r="G18" s="81"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="78" t="e">
         <f>H18/$D$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="148" t="s">
+      <c r="J18" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="205"/>
-      <c r="M18" s="206"/>
-      <c r="N18" s="152" t="e">
+      <c r="K18" s="158"/>
+      <c r="L18" s="159"/>
+      <c r="M18" s="160"/>
+      <c r="N18" s="80" t="e">
         <f>I18-F18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O18" s="64"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
+      <c r="P18" s="171"/>
+      <c r="Q18" s="172"/>
+      <c r="R18" s="172"/>
     </row>
     <row r="19" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A19" s="207" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="208"/>
-      <c r="C19" s="208"/>
-      <c r="D19" s="208"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
-      <c r="H19" s="209"/>
-      <c r="I19" s="210"/>
-      <c r="J19" s="211"/>
-      <c r="K19" s="176"/>
-      <c r="L19" s="176"/>
-      <c r="M19" s="177"/>
-      <c r="N19" s="152"/>
+      <c r="A19" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="173"/>
+      <c r="L19" s="173"/>
+      <c r="M19" s="174"/>
+      <c r="N19" s="80"/>
     </row>
     <row r="20" spans="1:18" ht="38.25" customHeight="1">
-      <c r="A20" s="196">
+      <c r="A20" s="95">
         <v>13</v>
       </c>
-      <c r="B20" s="212" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="213"/>
-      <c r="D20" s="214" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="143">
+      <c r="B20" s="175" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="176"/>
+      <c r="D20" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="74">
         <f>D24*0.05</f>
         <v>0</v>
       </c>
-      <c r="F20" s="215" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="156">
+      <c r="F20" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="81">
         <f>G15</f>
         <v>0</v>
       </c>
-      <c r="H20" s="146">
+      <c r="H20" s="77">
         <f>H15</f>
         <v>0</v>
       </c>
-      <c r="I20" s="186" t="e">
+      <c r="I20" s="91" t="e">
         <f>H20/$D$24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="148" t="s">
+      <c r="J20" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="216" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="205"/>
-      <c r="M20" s="206"/>
-      <c r="N20" s="217" t="e">
+      <c r="K20" s="177"/>
+      <c r="L20" s="159"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="106" t="e">
         <f>I20-5%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A21" s="196">
+      <c r="A21" s="95">
         <v>14</v>
       </c>
-      <c r="B21" s="218" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="219"/>
-      <c r="D21" s="214" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="220">
+      <c r="B21" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="137"/>
+      <c r="D21" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="107">
         <f>D24*0.35</f>
         <v>0</v>
       </c>
-      <c r="F21" s="221" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="222" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="223"/>
-      <c r="I21" s="186" t="e">
+      <c r="F21" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="110"/>
+      <c r="I21" s="91" t="e">
         <f>H21/$D$24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="148" t="s">
+      <c r="J21" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="224"/>
-      <c r="L21" s="219"/>
-      <c r="M21" s="225"/>
-      <c r="N21" s="217" t="e">
+      <c r="K21" s="138"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="106" t="e">
         <f>I21-30%</f>
         <v>#DIV/0!</v>
       </c>
@@ -4316,84 +4283,84 @@
       <c r="M22" s="54"/>
     </row>
     <row r="23" spans="1:18" ht="33" customHeight="1">
-      <c r="A23" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="83"/>
+      <c r="A23" s="140" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="141"/>
       <c r="C23" s="53" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="42"/>
       <c r="G23" s="51" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="142" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="86"/>
+      <c r="M23" s="144"/>
     </row>
     <row r="24" spans="1:18" ht="33" customHeight="1">
-      <c r="A24" s="87" t="str">
+      <c r="A24" s="145" t="str">
         <f>A23</f>
         <v>110.12.31</v>
       </c>
-      <c r="B24" s="88"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="49" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D24" s="48"/>
       <c r="E24" s="42"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="70"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="149"/>
       <c r="I24" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="73"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="75"/>
+        <v>48</v>
+      </c>
+      <c r="J24" s="151" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="152"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="154"/>
       <c r="N24" s="46" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O24" s="45" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="38.15" customHeight="1" thickBot="1">
-      <c r="A25" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="91"/>
+      <c r="A25" s="112" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="113"/>
       <c r="C25" s="44" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D25" s="43">
         <f>H21</f>
         <v>0</v>
       </c>
       <c r="E25" s="42"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="71"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="150"/>
       <c r="I25" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="93"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="95"/>
+        <v>43</v>
+      </c>
+      <c r="J25" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="115"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="117"/>
       <c r="O25" s="9"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="40"/>
@@ -4403,42 +4370,42 @@
       <c r="H26" s="38"/>
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="119"/>
       <c r="O26" s="9"/>
     </row>
     <row r="27" spans="1:18" ht="21" customHeight="1">
-      <c r="A27" s="98" t="str">
+      <c r="A27" s="120" t="str">
         <f>A25</f>
         <v>111.03.31</v>
       </c>
-      <c r="B27" s="99"/>
+      <c r="B27" s="121"/>
       <c r="C27" s="36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E27" s="34"/>
       <c r="G27" s="33" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="31"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="102" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" s="103"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="M27" s="125"/>
       <c r="O27" s="9"/>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A28" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="105"/>
+      <c r="A28" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="127"/>
       <c r="C28" s="30">
         <f>H8</f>
         <v>0</v>
@@ -4449,17 +4416,17 @@
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="107"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="129"/>
       <c r="L28" s="24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M28" s="23">
         <f>J29-H29</f>
@@ -4468,10 +4435,10 @@
       <c r="O28" s="9"/>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A29" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="77"/>
+      <c r="A29" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="131"/>
       <c r="C29" s="22" t="e">
         <f>C28/$D$25</f>
         <v>#DIV/0!</v>
@@ -4482,14 +4449,14 @@
       </c>
       <c r="E29" s="12"/>
       <c r="G29" s="20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="18"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="79"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="133"/>
       <c r="L29" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M29" s="16">
         <f>J29-I29</f>
@@ -4505,33 +4472,33 @@
       <c r="E30" s="12"/>
       <c r="F30" s="11"/>
       <c r="G30" s="10"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="135"/>
       <c r="O30" s="9"/>
     </row>
     <row r="31" spans="1:18" s="7" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A31" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
+      <c r="A31" s="134" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
       <c r="O31" s="8"/>
     </row>
     <row r="32" spans="1:18" s="4" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A32" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
+      <c r="A32" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
       <c r="D32" s="6"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -4547,6 +4514,53 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:M3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:M23"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="J25:K25"/>
@@ -4561,53 +4575,6 @@
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="A31:L31"/>
     <mergeCell ref="J30:K30"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:M3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
